--- a/TAllegro/bom_price.xlsx
+++ b/TAllegro/bom_price.xlsx
@@ -1,45 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhe/Desktop/TaskModel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BB55D9-23F6-C047-AC9F-739372BDC2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="26820" windowHeight="10500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="bom_price" sheetId="2" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bom_price" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+  </numFmts>
   <fonts count="2">
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -57,22 +54,96 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -360,14 +431,5510 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D707305E-F1CE-1A43-A0C4-768AD7A067F3}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
+  <cols>
+    <col width="11" customWidth="1" style="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>A1103EUA-T</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>深圳市旭日天峰科技有限公司</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>SIP-3L</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>13+</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>￥4.2</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A1202LUA-T</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sensata-Crydom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>深圳市粤科源兴科技有限公司</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>TO-92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>18+</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>￥3.9</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2021/08</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>500-1K</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A1213LUA-T</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TE Connectivity AMP Connectors</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>深圳市佰诺德电子有限公司</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22+</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>￥3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2023/04</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A1304ELHLX-T</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>American Hakko Products, Inc.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>￥5</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2023/02</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A1425LK-T</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>深圳市正凯电子有限公司</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SIP4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1113+</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>￥13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2023/03</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A3211EELLT-T</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>￥1.2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2023/02</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A3212EEHLT-T</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>深圳市正凯电子有限公司</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MLP6</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1314+</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>￥0.4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2021/09</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A3212EEHLT-T</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>深圳市正凯电子有限公司</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MLP6</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1314+</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>￥0.4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2021/09</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A3212EELLT-T</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>深圳市利盛鸿业科技有限公司</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>QFN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1727+</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>￥0.7</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1月内</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>&gt;10k</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A1103EUA-T</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>深圳市旭日天峰科技有限公司</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SIP-3L</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>13+</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>￥4.2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A1103EUA-T</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>深圳市旭日天峰科技有限公司</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SIP-3L</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>13+</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>￥10.2</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A1103EUA-T</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>￥12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A1202LUA-T</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sensata-Crydom</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>深圳市粤科源兴科技有限公司</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TO-92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>18+</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>￥3.9</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2021/08</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>500-1K</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A1202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sensata-Crydom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>深圳市科伟微电子有限公司</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SOP-8</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>08+</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>￥1</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>500-1K</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A1202LUA-T</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sensata-Crydom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>深圳市普斯尼电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SIP-3</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>201341+</t>
+        </is>
+      </c>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>￥4.5</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>500-1K</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A1213LLHLT-T</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TE Connectivity AMP Connectors</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>深圳市硅源微电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SOT-23W</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2010+</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>12.1678</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>一周前</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>&gt;10k</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A1213LUA-T</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TE Connectivity AMP Connectors</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>深圳市佰诺德电子有限公司</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22+</t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>￥3</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2023/04</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A1213LUA-T</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TE Connectivity AMP Connectors</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鑫锋盛电子(香港)有限公司</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22+</t>
+        </is>
+      </c>
+      <c r="F18" s="1" t="inlineStr">
+        <is>
+          <t>￥10.2</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2022/08</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A1213LUA-T</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TE Connectivity AMP Connectors</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F19" s="1" t="inlineStr">
+        <is>
+          <t>￥60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2022/08</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A1304ELHLX-T</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>American Hakko Products, Inc.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>￥5</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2023/02</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A1304ELHLX-T</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>American Hakko Products, Inc.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>￥8</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2023/02</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A1304ELHLX-T</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>American Hakko Products, Inc.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>￥4.1</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2023/02</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A1425LK-T</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>深圳市正凯电子有限公司</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SIP4</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1113+</t>
+        </is>
+      </c>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>￥13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2023/03</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A1425LK-T</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>深圳市金葳光电子有限公司</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SIP4</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1605+</t>
+        </is>
+      </c>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>￥32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2022/07</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A1425LK-T</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>深圳市金葳光电子有限公司</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SIP4</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1605+</t>
+        </is>
+      </c>
+      <c r="F25" s="1" t="inlineStr">
+        <is>
+          <t>￥17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2021/08</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A3211EELLT-T</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>深圳市智锐宏电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>QFN-3</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0804+</t>
+        </is>
+      </c>
+      <c r="F26" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>今天</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>5k-10k</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A3211EELLT-T</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F27" s="1" t="inlineStr">
+        <is>
+          <t>￥1.2</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2023/02</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A3211EELLT-T</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F28" s="1" t="inlineStr">
+        <is>
+          <t>￥1.3</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2022/04</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A3211EELLT-T</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>深圳市福田区银宏锋电子经营部</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>QFN3</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0724/0729</t>
+        </is>
+      </c>
+      <c r="F29" s="1" t="inlineStr">
+        <is>
+          <t>￥0.8</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>&gt;10k</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>A3212EEHLT-T</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>深圳市索辉电子有限公司</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>QFN-6</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0703+</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>一周前</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>500-1K</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>A3212EEHLT-T</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>深圳市硅源微电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>QFN-6</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>09+</t>
+        </is>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>12.1678</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>一周前</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>A3212EEHLT-T</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>深圳市正凯电子有限公司</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>MLP6</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1314+</t>
+        </is>
+      </c>
+      <c r="F32" s="1" t="inlineStr">
+        <is>
+          <t>￥0.4</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2021/09</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>A3212EEHLT-T</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F33" s="1" t="inlineStr">
+        <is>
+          <t>￥0.5445</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>&gt;10k</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>A3212EEHLT-T</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>深圳市福田区泰兴微电子商行</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>07+</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>QFN</t>
+        </is>
+      </c>
+      <c r="F34" s="1" t="inlineStr">
+        <is>
+          <t>￥0.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>&gt;10k</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>A3212EEHLT-T</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>深圳市索辉电子有限公司</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>QFN-6</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0703+</t>
+        </is>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>一周前</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>500-1K</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>A3212EEHLT-T</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>深圳市硅源微电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>QFN-6</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>09+</t>
+        </is>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>12.1678</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>一周前</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>A3212EEHLT-T</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>深圳市正凯电子有限公司</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>MLP6</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1314+</t>
+        </is>
+      </c>
+      <c r="F37" s="1" t="inlineStr">
+        <is>
+          <t>￥0.4</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2021/09</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>A3212EEHLT-T</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F38" s="1" t="inlineStr">
+        <is>
+          <t>￥0.5445</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>&gt;10k</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>A3212EEHLT-T</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>深圳市福田区泰兴微电子商行</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>07+</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>QFN</t>
+        </is>
+      </c>
+      <c r="F39" s="1" t="inlineStr">
+        <is>
+          <t>￥0.55</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>&gt;10k</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>A3212EELLT-T</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>深圳市商腾科技有限公司</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>QFN3</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0944+</t>
+        </is>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>7.5168</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>一周前</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>A3212EELLT-T</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>深圳市利盛鸿业科技有限公司</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>QFN</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1727+</t>
+        </is>
+      </c>
+      <c r="F41" s="1" t="inlineStr">
+        <is>
+          <t>￥0.7</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1月内</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>&gt;10k</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>A3212EELLT-T</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>深圳市福田区鸿泰宇电子经营部</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>QFN</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>07+</t>
+        </is>
+      </c>
+      <c r="F42" s="1" t="inlineStr">
+        <is>
+          <t>￥0.7</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1月内</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>&gt;10k</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>A3212EELLT-T</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>深圳市裕兴顺电子有限公司</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>QFN</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="F43" s="1" t="inlineStr">
+        <is>
+          <t>￥1</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1月内</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>&gt;10k</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>A3213EUA-T</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F44" s="1" t="inlineStr">
+        <is>
+          <t>￥30</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2023/02</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>A3213EUA-T</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F45" s="1" t="inlineStr">
+        <is>
+          <t>￥36</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2023/02</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>A3213EUA-T 电磁、磁敏传感器</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F46" s="1" t="inlineStr">
+        <is>
+          <t>￥35</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2023/02</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>A3213LLHLT-T</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F47" s="1" t="inlineStr">
+        <is>
+          <t>￥2</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>A3213LLHLT-T</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>都乐电子</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>SOT-23</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2016+</t>
+        </is>
+      </c>
+      <c r="F48" s="1" t="inlineStr">
+        <is>
+          <t>￥1</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>A3213LLHLT-T</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F49" s="1" t="inlineStr">
+        <is>
+          <t>￥20</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>A3213LUA-T</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F50" s="1" t="inlineStr">
+        <is>
+          <t>￥15</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2022/08</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>A3213LUA-T</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>深圳市云中傲科技有限公司</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>TO92</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>21+</t>
+        </is>
+      </c>
+      <c r="F51" s="1" t="inlineStr">
+        <is>
+          <t>￥11.5</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2022/08</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>A3213LUA-T</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>上海德懿电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>SIP3</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2208+</t>
+        </is>
+      </c>
+      <c r="F52" s="1" t="inlineStr">
+        <is>
+          <t>￥40</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2022/08</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>A3906SESTR-T</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>合力芯(香港)科技有限公司</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>QFN</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21+</t>
+        </is>
+      </c>
+      <c r="F53" s="1" t="inlineStr">
+        <is>
+          <t>￥8</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2023/03</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>A3906SESTR-T</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F54" s="1" t="inlineStr">
+        <is>
+          <t>￥4</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2023/03</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>A3906SESTR-T</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>深圳市希创辉科技有限公司</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>QFN20</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2136+</t>
+        </is>
+      </c>
+      <c r="F55" s="1" t="inlineStr">
+        <is>
+          <t>￥4.5</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2023/03</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>A3938SLDT</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汕头市鹏晖电子</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>TSSOP</t>
+        </is>
+      </c>
+      <c r="F56" s="1" t="inlineStr">
+        <is>
+          <t>￥110</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>1周内</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>A3938SLDTR-T</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F57" s="1" t="inlineStr">
+        <is>
+          <t>￥800</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>1周内</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>A3938SLDTR-T</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>深圳市程信达伟业电子有限公司</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>TSSOP38</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>21+</t>
+        </is>
+      </c>
+      <c r="F58" s="1" t="inlineStr">
+        <is>
+          <t>￥220</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>1周内</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>A3938SLDTR-T</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F59" s="1" t="inlineStr">
+        <is>
+          <t>￥800</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>1周内</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>A3938SLDTR-T</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>深圳市程信达伟业电子有限公司</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>TSSOP38</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>21+</t>
+        </is>
+      </c>
+      <c r="F60" s="1" t="inlineStr">
+        <is>
+          <t>￥220</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>1周内</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>A3938SLDTR-T</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>深圳市易芯源科技有限公司</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>TSSOP38</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>22+</t>
+        </is>
+      </c>
+      <c r="F61" s="1" t="inlineStr">
+        <is>
+          <t>￥600</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1周内</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>A3946KLBT</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>深圳市鑫美泰科技有限公司(原华科芯电子)</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>SSOP-16</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="F62" s="1" t="inlineStr">
+        <is>
+          <t>￥9</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>&gt;10k</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>A3946KLBT</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>新科龙(香港)电子有限公司</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>SSOP-16</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="F63" s="1" t="inlineStr">
+        <is>
+          <t>￥8</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>&gt;10k</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>A3946KLBTR-T</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>深圳市天科世纪电子有限公司(原天科电子)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="F64" s="1" t="inlineStr">
+        <is>
+          <t>￥10</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>&gt;10k</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>A3946KLBT</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>深圳市鑫美泰科技有限公司(原华科芯电子)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>SSOP-16</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="F65" s="1" t="inlineStr">
+        <is>
+          <t>￥9</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>&gt;10k</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>A3946KLBT</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>新科龙(香港)电子有限公司</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>SSOP-16</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="F66" s="1" t="inlineStr">
+        <is>
+          <t>￥8</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>&gt;10k</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>A3946KLBTR-T</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>深圳市天科世纪电子有限公司(原天科电子)</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="F67" s="1" t="inlineStr">
+        <is>
+          <t>￥10</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>&gt;10k</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>A3946KLBTR-T</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>深圳市天科世纪电子有限公司(原天科电子)</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="F68" s="1" t="inlineStr">
+        <is>
+          <t>￥10</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>&gt;10k</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>A3946KLBTR-T</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>深圳市华自隆电子有限公司</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="F69" s="1" t="inlineStr">
+        <is>
+          <t>￥12</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>A3946KLBTR-T</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>新科龍(香港)電子有限公司</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F70" s="1" t="inlineStr">
+        <is>
+          <t>￥10</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>A3946KLBTR-T</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>深圳市天科世纪电子有限公司(原天科电子)</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="F71" s="1" t="inlineStr">
+        <is>
+          <t>￥10</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>&gt;10k</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>A3946KLBTR-T</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>深圳市华自隆电子有限公司</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="F72" s="1" t="inlineStr">
+        <is>
+          <t>￥12</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>A3946KLBTR-T</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>新科龍(香港)電子有限公司</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F73" s="1" t="inlineStr">
+        <is>
+          <t>￥10</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>A3946KLPTR-T 驱动IC</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>深圳市未来星电子数码有限公司</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>TSSOP16</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="F74" s="1" t="inlineStr">
+        <is>
+          <t>￥30</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2023/03</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>A3946KLPTR-T</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>深圳市尚顶电子有限公司</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>TSSOP16</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>21+</t>
+        </is>
+      </c>
+      <c r="F75" s="1" t="inlineStr">
+        <is>
+          <t>￥120</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2023/02</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>A3946KLPTR-T</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F76" s="1" t="inlineStr">
+        <is>
+          <t>￥120</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2022/12</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>A3946KLPTR-T 驱动IC</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>深圳市未来星电子数码有限公司</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>TSSOP16</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="F77" s="1" t="inlineStr">
+        <is>
+          <t>￥30</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2023/03</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>A3946KLPTR-T</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>深圳市尚顶电子有限公司</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>TSSOP16</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>21+</t>
+        </is>
+      </c>
+      <c r="F78" s="1" t="inlineStr">
+        <is>
+          <t>￥120</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2023/02</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>A3946KLPTR-T</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F79" s="1" t="inlineStr">
+        <is>
+          <t>￥120</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2022/12</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>A3946KLPTR-T 驱动IC</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>深圳市未来星电子数码有限公司</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>TSSOP16</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="F80" s="1" t="inlineStr">
+        <is>
+          <t>￥30</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2023/03</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>A3946KLPTR-T</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>深圳市尚顶电子有限公司</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>TSSOP16</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>21+</t>
+        </is>
+      </c>
+      <c r="F81" s="1" t="inlineStr">
+        <is>
+          <t>￥120</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2023/02</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>A3946KLPTR-T</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F82" s="1" t="inlineStr">
+        <is>
+          <t>￥120</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2022/12</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>A4490EESTR-T</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>深圳市莱圳发科技有限公司</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>QFN20</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>15+</t>
+        </is>
+      </c>
+      <c r="F83" s="5" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>一周前</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>A4490EESTR-T</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>深圳市杰鹏盛电子有限公司</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>QFN20</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>18+</t>
+        </is>
+      </c>
+      <c r="F84" s="5" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>一周前</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>500-1K</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>A4490EESTR-T</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>深圳市睿光微电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>QFN20</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>22+</t>
+        </is>
+      </c>
+      <c r="F85" s="1" t="inlineStr">
+        <is>
+          <t>￥8</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>1周内</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>&gt;10k</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>A4490EESTR-T</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F86" s="1" t="inlineStr">
+        <is>
+          <t>￥9.8</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>1周内</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>A4490EESTR-T</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F87" s="1" t="inlineStr">
+        <is>
+          <t>￥8</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>1周内</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>A4931METTR-T</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F88" s="1" t="inlineStr">
+        <is>
+          <t>￥5</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2022/11</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>A4931METTR-T</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F89" s="1" t="inlineStr">
+        <is>
+          <t>￥5</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2022/11</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>A4931METTR-T</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F90" s="1" t="inlineStr">
+        <is>
+          <t>￥4.7</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2022/11</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="J90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>A5348CA-T</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F91" s="1" t="inlineStr">
+        <is>
+          <t>￥12</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2022/06</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+      <c r="J91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>A5348CA-T</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F92" s="1" t="inlineStr">
+        <is>
+          <t>￥12</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2022/06</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+      <c r="J92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>A5348CA-T</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F93" s="1" t="inlineStr">
+        <is>
+          <t>￥12</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2022/06</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+      <c r="J93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>A5358CAT</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>新科龍(香港)電子有限公司</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>DIP-16</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="F94" s="1" t="inlineStr">
+        <is>
+          <t>￥5</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+      <c r="J94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>A5358CA-T</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F95" s="1" t="inlineStr">
+        <is>
+          <t>＄1</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>&gt;10k</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+      <c r="J95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>A5358CAT</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F96" s="1" t="inlineStr">
+        <is>
+          <t>￥3</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>5k-10k</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+      <c r="J96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>A5366CA-T</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F97" s="1" t="inlineStr">
+        <is>
+          <t>￥2.5</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+      <c r="J97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>A5366CA</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F98" s="1" t="inlineStr">
+        <is>
+          <t>￥2</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+      <c r="J98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>A5366CA</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>深圳市福田区新亚洲电子市场鹏腾电子经营部</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>SOP-16</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>08+</t>
+        </is>
+      </c>
+      <c r="F99" s="1" t="inlineStr">
+        <is>
+          <t>￥7</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+      <c r="J99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>A5367CA</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>深圳市源达电子有限公司</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>DIP</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>06+</t>
+        </is>
+      </c>
+      <c r="F100" s="1" t="inlineStr">
+        <is>
+          <t>￥5</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+      <c r="J100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>A5367CAT</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>香港鸿运电子有限公司</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>DIP16</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>11+</t>
+        </is>
+      </c>
+      <c r="F101" s="1" t="inlineStr">
+        <is>
+          <t>￥6.5</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+      <c r="J101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>A5367CA</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F102" s="1" t="inlineStr">
+        <is>
+          <t>￥3.5</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+      <c r="J102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>A5940KLKTR-T</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>深圳博芯创想科技有限公司</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>HSOP10</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>21+</t>
+        </is>
+      </c>
+      <c r="F103" s="1" t="inlineStr">
+        <is>
+          <t>￥80</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2023/02</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+      <c r="J103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>A5940KLKTR-T</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F104" s="1" t="inlineStr">
+        <is>
+          <t>￥20</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>2023/02</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+      <c r="J104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>A5940KLKTR-T</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>深圳博芯创想科技有限公司</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>HSOP10</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>21+</t>
+        </is>
+      </c>
+      <c r="F105" s="1" t="inlineStr">
+        <is>
+          <t>￥320</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>2022/06</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+      <c r="J105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>A8450KLBTR-T</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>深圳市福田区新利汇电子商行</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>11+</t>
+        </is>
+      </c>
+      <c r="F106" s="1" t="inlineStr">
+        <is>
+          <t>￥23</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2022/06</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+      <c r="J106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>A8450KLBTR-T</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>深圳市志钧实业有限公司</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>SOP24</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>21+</t>
+        </is>
+      </c>
+      <c r="F107" s="1" t="inlineStr">
+        <is>
+          <t>￥10</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>2022/05</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+      <c r="J107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>A8450KLBT</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>深圳市福田区科利达盛电子商行</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>TSSOP</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="F108" s="1" t="inlineStr">
+        <is>
+          <t>￥20</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>2022/01</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+      <c r="J108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>A8498SLJTR-T</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华源达电子(香港)有限公司</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>SOP8</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>22+</t>
+        </is>
+      </c>
+      <c r="F109" s="1" t="inlineStr">
+        <is>
+          <t>￥15</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>1月内</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+      <c r="J109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>A8498SLJTR-T IC</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>深圳市南方裕发电子有限公司</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>SOP8</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>22+</t>
+        </is>
+      </c>
+      <c r="F110" s="1" t="inlineStr">
+        <is>
+          <t>￥24</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>1月内</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+      <c r="J110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>A8498SLJTR-T</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Allegro MicroSystems</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>深圳市美斯捷电子商行</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>SOP-8</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>22+</t>
+        </is>
+      </c>
+      <c r="F111" s="1" t="inlineStr">
+        <is>
+          <t>￥15</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>1月内</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+      <c r="J111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>